--- a/content/week6/C11y12_optimizacion.xlsx
+++ b/content/week6/C11y12_optimizacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nasalazar/Documents/GitHub/ua-imec2001-hc-202310-s2/content/week6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE915486-AA3D-4441-8575-0B58682FDA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EBCC34-A23F-EB43-937B-AA3F48D68221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplo Lineal" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Ejemplo Sistema Bombeo" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Ejemplo Lineal'!$A$1</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Ejemplo No Lineal'!$A$1</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Ejemplo Lineal'!$E$2:$E$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Ejemplo No Lineal'!$E$2:$E$3</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Ejemplo Sistema Bombeo'!$F$2:$F$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
@@ -70,11 +70,11 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">4</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Ejemplo Lineal'!$A$1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Ejemplo No Lineal'!$A$1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Ejemplo Lineal'!$E$6</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Ejemplo No Lineal'!$E$6</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Ejemplo Sistema Bombeo'!$G$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
@@ -135,8 +135,8 @@
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>FUNCIÓN OBJETIVO</t>
   </si>
@@ -213,12 +213,6 @@
     <t>MAX</t>
   </si>
   <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -XY</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -286,6 +280,9 @@
   </si>
   <si>
     <t>T &lt;= 2000</t>
+  </si>
+  <si>
+    <t>XY</t>
   </si>
 </sst>
 </file>
@@ -904,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95BF774-3A22-1F4D-836A-49C30C79515D}">
   <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -918,13 +915,17 @@
       <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>7.7272727272727284</v>
+      </c>
     </row>
     <row r="3" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>4.545454545454545</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="16" x14ac:dyDescent="0.15">
       <c r="C5" s="47" t="s">
@@ -940,7 +941,10 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <f>E2+2*E3</f>
+        <v>16.81818181818182</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="48" t="s">
@@ -953,11 +957,16 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <f>2*E2+E3</f>
+        <v>20</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
       <c r="F9" s="2" t="b">
         <f>C9&lt;=E9</f>
         <v>1</v>
@@ -967,11 +976,16 @@
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <f>-4*E2+5*E3</f>
+        <v>-8.181818181818187</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
       <c r="F10" s="2" t="b">
         <f>C10&lt;=E10</f>
         <v>1</v>
@@ -981,11 +995,16 @@
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <f>-E2+2*E3</f>
+        <v>1.3636363636363615</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>-2</v>
+      </c>
       <c r="F11" s="2" t="b">
         <f>C11&gt;=E11</f>
         <v>1</v>
@@ -995,11 +1014,16 @@
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <f>-E2+5*E3</f>
+        <v>14.999999999999998</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>15</v>
+      </c>
       <c r="F12" s="2" t="b">
         <f>C12=E12</f>
         <v>1</v>
@@ -1009,11 +1033,16 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <f>E2</f>
+        <v>7.7272727272727284</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="2" t="b">
         <f>C13&gt;=E13</f>
         <v>1</v>
@@ -1023,11 +1052,16 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <f>E3</f>
+        <v>4.545454545454545</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="2" t="b">
         <f>C14&gt;=E14</f>
         <v>1</v>
@@ -1068,13 +1102,17 @@
       <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4">
+        <v>12.000000249999999</v>
+      </c>
     </row>
     <row r="3" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>12.000000249999999</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="16" x14ac:dyDescent="0.15">
       <c r="C5" s="47" t="s">
@@ -1085,12 +1123,15 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="E6" s="9">
+        <f>E2*E3</f>
+        <v>144.00000600000004</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="48" t="s">
@@ -1103,25 +1144,35 @@
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <f>2*E2+2*E3</f>
+        <v>48.000000999999997</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>48</v>
+      </c>
       <c r="F9" s="2" t="b">
         <f>C9&lt;=E9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <f>E2</f>
+        <v>12.000000249999999</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
       <c r="F10" s="2" t="b">
         <f>C10&gt;=E10</f>
         <v>1</v>
@@ -1131,11 +1182,16 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <f>E3</f>
+        <v>12.000000249999999</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
       <c r="F11" s="2" t="b">
         <f>C11&gt;=E11</f>
         <v>1</v>
@@ -1159,7 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D812A6-9348-5841-9BC4-F36B27F94829}">
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1173,13 +1229,13 @@
   <sheetData>
     <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="20">
         <v>2</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="41">
         <v>10.45325930786</v>
@@ -1187,13 +1243,13 @@
     </row>
     <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="23">
         <v>1.94</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="42">
         <v>208.689831561472</v>
@@ -1201,13 +1257,13 @@
     </row>
     <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="23">
         <v>32.200000000000003</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="42">
         <v>91.349171418359603</v>
@@ -1215,13 +1271,13 @@
     </row>
     <row r="5" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="23">
         <v>30</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="43">
         <v>1491.4150435650599</v>
@@ -1229,7 +1285,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="23">
         <v>0.02</v>
@@ -1237,7 +1293,7 @@
     </row>
     <row r="7" spans="2:10" ht="16" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="22">
         <v>2.09E-5</v>
@@ -1250,7 +1306,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="25">
         <f>(PI()/4)*C2^2</f>
@@ -1260,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="44">
         <f>C11/C12</f>
@@ -1269,7 +1325,7 @@
     </row>
     <row r="10" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="38">
         <f>F3-((C6*(C5/C2)*(((F2/C8)^2)/(2*C4))))</f>
@@ -1283,7 +1339,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="39">
         <f>C3*C4*F2*C10</f>
@@ -1309,7 +1365,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="40">
         <f>F4*F5</f>
@@ -1363,7 +1419,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E15" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="30">
         <v>10</v>
@@ -1382,7 +1438,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E16" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="46">
         <f>F2</f>
@@ -1401,7 +1457,7 @@
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E17" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="30">
         <v>200</v>
@@ -1420,7 +1476,7 @@
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E18" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" s="46">
         <f>F3</f>
@@ -1439,7 +1495,7 @@
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E19" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="30">
         <v>50</v>
@@ -1458,7 +1514,7 @@
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E20" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="46">
         <f>F4</f>
@@ -1477,7 +1533,7 @@
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E21" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="30">
         <v>100</v>
@@ -1496,7 +1552,7 @@
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E22" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="46">
         <f>F5</f>
